--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R01A 清洁分切生产指令.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R01A 清洁分切生产指令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\302，清洁分切记录-20160113\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\cleancut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -527,18 +527,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编制人：</t>
+    <t>生产设备：分切机 AA-EQU-035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>备 注：</t>
     </r>
     <r>
       <rPr>
@@ -547,208 +541,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审批人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接收人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人：            年   月   日       审批人：            年   月    日       接收人：            年   月    日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +660,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1306,6 +1112,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,33 +1181,6 @@
     <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1384,27 +1190,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1416,6 +1201,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,56 +1566,56 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1637,7 @@
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
@@ -1873,55 +1679,50 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -1929,6 +1730,11 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1945,7 +1751,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1972,45 +1778,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="56"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -2068,24 +1874,24 @@
       <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="A10" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="A11" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R01A 清洁分切生产指令.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R01A 清洁分切生产指令.xlsx
@@ -557,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +668,22 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1033,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,8 +1125,47 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1139,48 +1194,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,11 +1203,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1202,26 +1230,23 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,56 +1591,56 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1662,7 @@
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
@@ -1679,50 +1704,55 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -1730,11 +1760,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1750,8 +1775,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1778,45 +1803,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -1834,64 +1859,64 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="62">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="62">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="A8" s="62">
         <v>3</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R01A 清洁分切生产指令.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R01A 清洁分切生产指令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\cleancut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\cleancut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -547,17 +547,21 @@
   </si>
   <si>
     <t>编制人：            年   月   日       审批人：            年   月    日       接收人：            年   月    日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1129,45 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,33 +1210,6 @@
     <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,29 +1240,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,7 +1270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1561,7 +1565,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.25" style="4" customWidth="1"/>
@@ -1575,7 +1579,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1590,57 +1594,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:9" ht="28.7" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A5" s="46"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1662,9 +1666,9 @@
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -1677,7 +1681,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -1690,7 +1694,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="35.450000000000003" customHeight="1">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -1703,56 +1707,51 @@
       <c r="H8" s="15"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:9" ht="57.95" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="47.25" customHeight="1">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="84.95" customHeight="1" thickBot="1">
+      <c r="A11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -1760,6 +1759,11 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1775,11 +1779,11 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="32" style="4" customWidth="1"/>
@@ -1790,7 +1794,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1802,46 +1806,46 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="57" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="35.450000000000003" customHeight="1">
+      <c r="A3" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:6" ht="28.7" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A5" s="64"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -1858,65 +1862,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62">
+    <row r="6" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1">
+      <c r="A6" s="25">
         <v>1</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="62">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-    </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="62">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" s="17" customFormat="1" ht="35.450000000000003" customHeight="1">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-    </row>
-    <row r="9" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="57.95" customHeight="1">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A11" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
